--- a/outputs/germline_VaraintBasedArray.xlsx
+++ b/outputs/germline_VaraintBasedArray.xlsx
@@ -66,74 +66,6 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M244"/>
+  <dimension ref="A1:N244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,20 +409,25 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>AF_popmax.1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>avsnp150</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>germline_test01</t>
-        </is>
-      </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>germline_test02</t>
+          <t>{i}</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>{i}</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Counts</t>
         </is>
@@ -542,20 +479,25 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>0.7654</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>rs3813194</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -605,20 +547,25 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>0.7623</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>rs4333796</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -668,20 +615,25 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>0.1739</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>rs12022640</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -731,20 +683,25 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>rs77481853</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -794,20 +751,25 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>0.151</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>rs6668667</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -857,20 +819,25 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>0.3286</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>rs1320571</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -920,20 +887,25 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>0.5839</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>rs2274791</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -983,20 +955,25 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>0.3081</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>rs78555129</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1046,20 +1023,25 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>0.1896</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>rs12093154</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>0|1</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0|1</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1109,20 +1091,25 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>0.5580</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>rs11260579</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>0|1</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0|1</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1172,20 +1159,25 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>0.5506</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>rs2228579</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1235,20 +1227,25 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>0.9881</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>rs307377</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1298,20 +1295,25 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
           <t>rs745907818</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>0|1</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0|1</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1361,20 +1363,25 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>0.4903</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
           <t>rs375289924</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>0|1</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0|1</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1424,20 +1431,25 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
           <t>rs2461551</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L16" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1487,20 +1499,25 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
           <t>rs372857539</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1550,20 +1567,25 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
           <t>rs371784856</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1613,20 +1635,25 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
           <t>rs375154304</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1676,20 +1703,25 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
+          <t>0.4453</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
           <t>rs866348371</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1739,20 +1771,25 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
+          <t>0.4274</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
           <t>rs370365546</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1802,20 +1839,25 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
+          <t>0.4180</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
           <t>rs866792932</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L22" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1865,20 +1907,25 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
           <t>rs373582709</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1928,20 +1975,25 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
+          <t>0.5698</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
           <t>rs370691115</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1991,20 +2043,25 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
+          <t>0.4593</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
           <t>rs796086906</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2054,20 +2111,25 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
+          <t>0.3690</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
           <t>rs370723703</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2117,20 +2179,25 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
+          <t>0.3628</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
           <t>rs373847457</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2180,20 +2247,25 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
+          <t>0.8853</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
           <t>rs34091023</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2243,20 +2315,25 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
           <t>rs17139966</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2306,20 +2383,25 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
           <t>rs3871811</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2369,20 +2451,25 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
+          <t>0.8874</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
           <t>rs1171</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2432,20 +2519,25 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
+          <t>0.9948</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
           <t>rs12030806</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2495,20 +2587,25 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
+          <t>0.9968</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
           <t>rs1695824</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2558,20 +2655,25 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
+          <t>0.9962</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
           <t>rs1695823</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2621,20 +2723,25 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
+          <t>0.3866</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
           <t>rs9793256</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2684,20 +2791,25 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
+          <t>0.2458</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
           <t>rs878986575</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2747,20 +2859,25 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
+          <t>0.5762</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
           <t>rs860213</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2810,20 +2927,25 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
           <t>rs140441570</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2873,20 +2995,25 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
+          <t>0.3445</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
           <t>rs2274435</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2936,20 +3063,25 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
+          <t>0.3013</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
           <t>rs1619925</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2999,20 +3131,25 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
+          <t>0.2645</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
           <t>rs1619896</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3062,20 +3199,25 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
+          <t>0.1944</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
           <t>rs1619815</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3125,20 +3267,25 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
+          <t>0.4307</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
           <t>rs2691315</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3188,20 +3335,25 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
+          <t>0.9782</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
           <t>rs557514207</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3251,20 +3403,25 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
+          <t>0.9365</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
           <t>rs12755088</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3314,20 +3471,25 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
+          <t>0.6145</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
           <t>rs12729295</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3377,20 +3539,25 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
           <t>rs199942750</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3440,20 +3607,25 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
+          <t>0.6301</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
           <t>rs1059831</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3503,20 +3675,25 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
+          <t>0.7103</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
           <t>rs77655487</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3566,20 +3743,25 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
+          <t>0.5578</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
           <t>rs150880809</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="M50" t="n">
+      <c r="N50" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3629,20 +3811,25 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
+          <t>0.4042</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
           <t>rs4751</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3697,7 +3884,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3705,7 +3892,12 @@
           <t>1/1</t>
         </is>
       </c>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3760,15 +3952,20 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="M53" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M53" t="n">
+      <c r="N53" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3818,20 +4015,25 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
+          <t>0.5684</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
           <t>rs28640257</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="L54" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="M54" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M54" t="n">
+      <c r="N54" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3881,20 +4083,25 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
+          <t>0.5631</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
           <t>rs575852588</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3944,20 +4151,25 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
+          <t>0.5649</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
           <t>rs2803295</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4007,20 +4219,25 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
+          <t>0.6703</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
           <t>rs2803327</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4070,20 +4287,25 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
+          <t>0.5768</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
           <t>rs2803336</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4133,20 +4355,25 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
+          <t>0.025</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
           <t>rs181015303</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4196,20 +4423,25 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
+          <t>0.2204</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
           <t>rs35269416</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4259,20 +4491,25 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
+          <t>0.4397</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
           <t>rs16824588</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="L61" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="M61" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M61" t="n">
+      <c r="N61" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4322,20 +4559,25 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
           <t>rs78101035</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr">
+      <c r="L62" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="M62" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M62" t="n">
+      <c r="N62" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4385,20 +4627,25 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
+          <t>0.3679</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
           <t>rs262688</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr">
+      <c r="L63" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="M63" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4448,20 +4695,25 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
           <t>rs6662296</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr">
+      <c r="L64" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="M64" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M64" t="n">
+      <c r="N64" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4511,20 +4763,25 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
+          <t>0.4598</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
           <t>rs10910053</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4574,20 +4831,25 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
+          <t>0.2271</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
           <t>rs72642166</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4637,20 +4899,25 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
+          <t>0.9248</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
           <t>rs2254874</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4700,20 +4967,25 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
+          <t>0.2257</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
           <t>rs2036082</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4763,20 +5035,25 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
+          <t>0.6186</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
           <t>rs2840525</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4826,20 +5103,25 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
+          <t>0.5160</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
           <t>rs2840526</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4889,20 +5171,25 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
+          <t>0.7242</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
           <t>rs2643912</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4952,20 +5239,25 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
           <t>rs74047119</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5015,20 +5307,25 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
+          <t>0.7382</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
           <t>rs2840528</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5078,20 +5375,25 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
+          <t>0.9237</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
           <t>rs2645082</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr">
+      <c r="L74" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="M74" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="M74" t="n">
+      <c r="N74" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5141,20 +5443,25 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
           <t>rs369208976</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr">
+      <c r="L75" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="M75" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="M75" t="n">
+      <c r="N75" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5204,20 +5511,25 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
           <t>rs142848828</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5267,20 +5579,25 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
+          <t>0.5168</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
           <t>rs12736998</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5330,20 +5647,25 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
+          <t>0.6580</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
           <t>rs2494620</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5393,20 +5715,25 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
+          <t>0.8153</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
           <t>rs2147905</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
+      <c r="L79" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="M79" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M79" t="n">
+      <c r="N79" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5456,20 +5783,25 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
+          <t>0.6875</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
           <t>rs3748825</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr">
+      <c r="L80" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="M80" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M80" t="n">
+      <c r="N80" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5519,20 +5851,25 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
+          <t>0.7084</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
           <t>rs2985858</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr">
+      <c r="L81" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="M81" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M81" t="n">
+      <c r="N81" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5582,20 +5919,25 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
+          <t>0.5448</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
           <t>rs2258734</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
+      <c r="L82" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="M82" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M82" t="n">
+      <c r="N82" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5645,20 +5987,25 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
+          <t>0.4097</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
           <t>rs3762438</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
+      <c r="L83" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="M83" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M83" t="n">
+      <c r="N83" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5708,20 +6055,25 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
+          <t>0.6745</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
           <t>rs2227312</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr">
+      <c r="L84" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="M84" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M84" t="n">
+      <c r="N84" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5771,20 +6123,25 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
+          <t>0.6971</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
           <t>rs2227313</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr">
+      <c r="L85" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="M85" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M85" t="n">
+      <c r="N85" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5834,20 +6191,25 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
+          <t>0.7178</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
           <t>rs4870</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr">
+      <c r="L86" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="M86" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M86" t="n">
+      <c r="N86" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5897,20 +6259,25 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
+          <t>0.8430</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
           <t>rs2495365</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5960,20 +6327,25 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
+          <t>0.8001</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
           <t>rs4486391</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr">
+      <c r="L88" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="M88" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M88" t="n">
+      <c r="N88" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6023,20 +6395,25 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
+          <t>0.6805</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
           <t>rs3748816</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6086,20 +6463,25 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
+          <t>0.5419</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
           <t>rs897628</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr">
+      <c r="L90" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="M90" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M90" t="n">
+      <c r="N90" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6149,20 +6531,25 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
+          <t>0.4502</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
           <t>rs1138513</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6212,20 +6599,25 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
+          <t>0.4870</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
           <t>rs2075969</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr">
+      <c r="L92" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="M92" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="M92" t="n">
+      <c r="N92" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6275,20 +6667,25 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
+          <t>0.4742</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
           <t>rs113565775</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6338,20 +6735,25 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
+          <t>0.2019</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
           <t>rs59243365</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6401,20 +6803,25 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
+          <t>0.1933</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
           <t>rs117423646</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6464,20 +6871,25 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
+          <t>0.4689</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
           <t>rs2072732</t>
         </is>
       </c>
-      <c r="K96" t="inlineStr">
+      <c r="L96" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L96" t="inlineStr">
+      <c r="M96" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M96" t="n">
+      <c r="N96" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6527,20 +6939,25 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
+          <t>0.2436</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
           <t>rs12563622</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr">
+      <c r="L97" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L97" t="inlineStr">
+      <c r="M97" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M97" t="n">
+      <c r="N97" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6590,20 +7007,25 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
+          <t>0.2015</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
           <t>rs12562250</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6653,20 +7075,25 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
+          <t>0.4009</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
           <t>rs2297829</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr">
+      <c r="L99" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L99" t="inlineStr">
+      <c r="M99" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M99" t="n">
+      <c r="N99" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6716,20 +7143,25 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
+          <t>0.9994</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
           <t>rs870124</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6779,20 +7211,25 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
           <t>rs3806164</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6842,20 +7279,25 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
+          <t>0.8643</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
           <t>rs2185639</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6905,20 +7347,25 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
           <t>rs61910697</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6968,20 +7415,25 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
+          <t>0.2955</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
           <t>rs61746168</t>
         </is>
       </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7031,20 +7483,25 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
           <t>rs12075570</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr">
+      <c r="L105" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="L105" t="inlineStr">
+      <c r="M105" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="M105" t="n">
+      <c r="N105" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7094,20 +7551,25 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
+          <t>0.3172</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
           <t>rs4648506</t>
         </is>
       </c>
-      <c r="K106" t="inlineStr">
+      <c r="L106" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L106" t="inlineStr">
+      <c r="M106" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M106" t="n">
+      <c r="N106" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7157,20 +7619,25 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
+          <t>0.7504</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
           <t>rs7553399</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr">
+      <c r="L107" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L107" t="inlineStr">
+      <c r="M107" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M107" t="n">
+      <c r="N107" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7220,20 +7687,25 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
+          <t>0.9160</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
           <t>rs2794340</t>
         </is>
       </c>
-      <c r="K108" t="inlineStr">
+      <c r="L108" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L108" t="inlineStr">
+      <c r="M108" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M108" t="n">
+      <c r="N108" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7283,20 +7755,25 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
+          <t>0.3847</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
           <t>rs7513275</t>
         </is>
       </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7346,20 +7823,25 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
+          <t>0.7442</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
           <t>rs9800</t>
         </is>
       </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7409,20 +7891,25 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
+          <t>0.8462</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
           <t>rs1181866</t>
         </is>
       </c>
-      <c r="K111" t="inlineStr">
+      <c r="L111" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L111" t="inlineStr">
+      <c r="M111" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M111" t="n">
+      <c r="N111" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7472,20 +7959,25 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
+          <t>0.9199</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
           <t>rs1181865</t>
         </is>
       </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7535,20 +8027,25 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
+          <t>0.7446</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
           <t>rs1181864</t>
         </is>
       </c>
-      <c r="K113" t="inlineStr">
+      <c r="L113" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L113" t="inlineStr">
+      <c r="M113" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M113" t="n">
+      <c r="N113" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7598,20 +8095,25 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
+          <t>0.2503</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
           <t>rs3838970</t>
         </is>
       </c>
-      <c r="K114" t="inlineStr">
+      <c r="L114" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L114" t="inlineStr">
+      <c r="M114" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M114" t="n">
+      <c r="N114" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7661,20 +8163,25 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
+          <t>0.2574</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
           <t>rs3903158</t>
         </is>
       </c>
-      <c r="K115" t="inlineStr">
+      <c r="L115" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L115" t="inlineStr">
+      <c r="M115" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M115" t="n">
+      <c r="N115" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7724,20 +8231,25 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
+          <t>0.2522</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
           <t>rs4098708</t>
         </is>
       </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7787,20 +8299,25 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
+          <t>0.9980</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
           <t>rs1181863</t>
         </is>
       </c>
-      <c r="K117" t="inlineStr">
+      <c r="L117" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L117" t="inlineStr">
+      <c r="M117" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M117" t="n">
+      <c r="N117" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7850,20 +8367,25 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
+          <t>0.3550</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
           <t>rs2298222</t>
         </is>
       </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7913,20 +8435,25 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
+          <t>0.2529</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
           <t>rs2298223</t>
         </is>
       </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7976,20 +8503,25 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
+          <t>0.4031</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
           <t>rs3737589</t>
         </is>
       </c>
-      <c r="K120" t="inlineStr">
+      <c r="L120" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L120" t="inlineStr">
+      <c r="M120" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M120" t="n">
+      <c r="N120" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8039,20 +8571,25 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
+          <t>0.3546</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
           <t>rs3737590</t>
         </is>
       </c>
-      <c r="K121" t="inlineStr">
+      <c r="L121" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L121" t="inlineStr">
+      <c r="M121" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M121" t="n">
+      <c r="N121" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8102,20 +8639,25 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
+          <t>0.3522</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
           <t>rs75438821</t>
         </is>
       </c>
-      <c r="K122" t="inlineStr">
+      <c r="L122" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L122" t="inlineStr">
+      <c r="M122" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M122" t="n">
+      <c r="N122" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8165,20 +8707,25 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
+          <t>0.3983</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
           <t>rs10910021</t>
         </is>
       </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8228,20 +8775,25 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
+          <t>0.6360</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
           <t>rs1181883</t>
         </is>
       </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8291,20 +8843,25 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
           <t>rs75853003</t>
         </is>
       </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8354,20 +8911,25 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
+          <t>0.5263</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
           <t>rs2275831</t>
         </is>
       </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8417,20 +8979,25 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
+          <t>0.4339</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
           <t>rs2275824</t>
         </is>
       </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8480,20 +9047,25 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
+          <t>0.2361</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
           <t>rs12738235</t>
         </is>
       </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8543,20 +9115,25 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
           <t>rs12036962</t>
         </is>
       </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8606,20 +9183,25 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
           <t>rs10909820</t>
         </is>
       </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8669,20 +9251,25 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
           <t>rs4274008</t>
         </is>
       </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8732,20 +9319,25 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
           <t>rs139505893</t>
         </is>
       </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8795,20 +9387,25 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
+          <t>0.3856</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
           <t>rs35355307</t>
         </is>
       </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8858,20 +9455,25 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
+          <t>0.9430</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
           <t>rs35241263</t>
         </is>
       </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8921,20 +9523,25 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
+          <t>0.1563</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
           <t>rs75380240</t>
         </is>
       </c>
-      <c r="K135" t="inlineStr">
+      <c r="L135" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L135" t="inlineStr">
+      <c r="M135" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M135" t="n">
+      <c r="N135" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8984,20 +9591,25 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
+          <t>0.7674</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
           <t>rs10799162</t>
         </is>
       </c>
-      <c r="K136" t="inlineStr">
+      <c r="L136" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L136" t="inlineStr">
+      <c r="M136" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M136" t="n">
+      <c r="N136" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9047,20 +9659,25 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
+          <t>0.6084</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
           <t>rs10799163</t>
         </is>
       </c>
-      <c r="K137" t="inlineStr">
+      <c r="L137" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L137" t="inlineStr">
+      <c r="M137" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M137" t="n">
+      <c r="N137" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9110,20 +9727,25 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
+          <t>0.7593</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
           <t>rs10915345</t>
         </is>
       </c>
-      <c r="K138" t="inlineStr">
+      <c r="L138" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L138" t="inlineStr">
+      <c r="M138" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M138" t="n">
+      <c r="N138" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9173,20 +9795,25 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
           <t>rs187020354</t>
         </is>
       </c>
-      <c r="K139" t="inlineStr">
+      <c r="L139" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L139" t="inlineStr">
+      <c r="M139" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M139" t="n">
+      <c r="N139" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9236,20 +9863,25 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
           <t>rs12058774</t>
         </is>
       </c>
-      <c r="K140" t="inlineStr">
+      <c r="L140" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L140" t="inlineStr">
+      <c r="M140" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M140" t="n">
+      <c r="N140" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9299,20 +9931,25 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
+          <t>0.2852</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
           <t>rs11590912</t>
         </is>
       </c>
-      <c r="K141" t="inlineStr">
+      <c r="L141" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L141" t="inlineStr">
+      <c r="M141" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M141" t="n">
+      <c r="N141" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9362,20 +9999,25 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
           <t>rs2926478</t>
         </is>
       </c>
-      <c r="K142" t="inlineStr">
+      <c r="L142" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L142" t="inlineStr">
+      <c r="M142" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M142" t="n">
+      <c r="N142" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9425,20 +10067,25 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
+          <t>0.7678</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
           <t>rs34773421</t>
         </is>
       </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9488,20 +10135,25 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
           <t>rs2926479</t>
         </is>
       </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9551,20 +10203,25 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
+          <t>0.5476</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
           <t>rs4654533</t>
         </is>
       </c>
-      <c r="K145" t="inlineStr">
+      <c r="L145" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L145" t="inlineStr">
+      <c r="M145" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M145" t="n">
+      <c r="N145" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9614,20 +10271,25 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
+          <t>0.4575</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
           <t>rs7522080</t>
         </is>
       </c>
-      <c r="K146" t="inlineStr">
+      <c r="L146" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L146" t="inlineStr">
+      <c r="M146" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M146" t="n">
+      <c r="N146" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9677,20 +10339,25 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
+          <t>0.4578</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
           <t>rs4654534</t>
         </is>
       </c>
-      <c r="K147" t="inlineStr">
+      <c r="L147" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L147" t="inlineStr">
+      <c r="M147" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M147" t="n">
+      <c r="N147" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9740,20 +10407,25 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
+          <t>0.4100</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
           <t>rs376744526</t>
         </is>
       </c>
-      <c r="K148" t="inlineStr">
+      <c r="L148" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L148" t="inlineStr">
+      <c r="M148" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M148" t="n">
+      <c r="N148" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9803,20 +10475,25 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
+          <t>0.6896</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
           <t>rs980092</t>
         </is>
       </c>
-      <c r="K149" t="inlineStr">
+      <c r="L149" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L149" t="inlineStr">
+      <c r="M149" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M149" t="n">
+      <c r="N149" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9866,20 +10543,25 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
+          <t>0.9417</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
           <t>rs184781</t>
         </is>
       </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9929,20 +10611,25 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
+          <t>0.9416</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
           <t>rs515279</t>
         </is>
       </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9992,20 +10679,25 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
+          <t>0.6539</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
           <t>rs242056</t>
         </is>
       </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10055,20 +10747,25 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
+          <t>0.9981</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
           <t>rs2843493</t>
         </is>
       </c>
-      <c r="K153" t="inlineStr">
+      <c r="L153" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L153" t="inlineStr">
+      <c r="M153" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M153" t="n">
+      <c r="N153" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10118,20 +10815,25 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
           <t>rs117780546</t>
         </is>
       </c>
-      <c r="K154" t="inlineStr">
+      <c r="L154" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L154" t="inlineStr">
+      <c r="M154" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M154" t="n">
+      <c r="N154" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10181,20 +10883,25 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
+          <t>0.4156</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
           <t>rs2272988</t>
         </is>
       </c>
-      <c r="K155" t="inlineStr">
+      <c r="L155" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L155" t="inlineStr">
+      <c r="M155" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M155" t="n">
+      <c r="N155" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10244,20 +10951,25 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L156" t="inlineStr">
+      <c r="M156" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M156" t="n">
+      <c r="N156" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10307,20 +11019,25 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
+          <t>0.2198</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
           <t>rs78132938</t>
         </is>
       </c>
-      <c r="K157" t="inlineStr">
+      <c r="L157" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L157" t="inlineStr">
+      <c r="M157" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M157" t="n">
+      <c r="N157" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10370,20 +11087,25 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
           <t>rs78231499</t>
         </is>
       </c>
-      <c r="K158" t="inlineStr">
+      <c r="L158" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L158" t="inlineStr">
+      <c r="M158" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M158" t="n">
+      <c r="N158" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10433,20 +11155,25 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
+          <t>0.5402</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
           <t>rs75490131</t>
         </is>
       </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10496,20 +11223,25 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
+          <t>0.9964</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
           <t>rs6693391</t>
         </is>
       </c>
-      <c r="K160" t="inlineStr">
+      <c r="L160" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L160" t="inlineStr">
+      <c r="M160" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M160" t="n">
+      <c r="N160" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10559,20 +11291,25 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
           <t>rs6693400</t>
         </is>
       </c>
-      <c r="K161" t="inlineStr">
+      <c r="L161" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L161" t="inlineStr">
+      <c r="M161" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M161" t="n">
+      <c r="N161" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10622,20 +11359,25 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
+          <t>0.8866</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
           <t>rs4908923</t>
         </is>
       </c>
-      <c r="K162" t="inlineStr">
+      <c r="L162" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L162" t="inlineStr">
+      <c r="M162" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M162" t="n">
+      <c r="N162" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10685,20 +11427,25 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
           <t>rs10864628</t>
         </is>
       </c>
-      <c r="K163" t="inlineStr">
+      <c r="L163" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L163" t="inlineStr">
+      <c r="M163" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M163" t="n">
+      <c r="N163" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10748,20 +11495,25 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
+          <t>0.4169</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
           <t>rs3174820</t>
         </is>
       </c>
-      <c r="K164" t="inlineStr">
+      <c r="L164" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L164" t="inlineStr">
+      <c r="M164" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M164" t="n">
+      <c r="N164" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10811,20 +11563,25 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
           <t>rs2691305</t>
         </is>
       </c>
-      <c r="K165" t="inlineStr">
+      <c r="L165" t="inlineStr">
         <is>
           <t>0|1</t>
         </is>
       </c>
-      <c r="L165" t="inlineStr">
+      <c r="M165" t="inlineStr">
         <is>
           <t>0|1</t>
         </is>
       </c>
-      <c r="M165" t="n">
+      <c r="N165" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10874,20 +11631,25 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
+          <t>0.8683</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
           <t>rs200946230</t>
         </is>
       </c>
-      <c r="K166" t="inlineStr">
+      <c r="L166" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L166" t="inlineStr">
+      <c r="M166" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M166" t="n">
+      <c r="N166" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10937,20 +11699,25 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
+          <t>0.8638</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
           <t>rs202070913</t>
         </is>
       </c>
-      <c r="K167" t="inlineStr">
+      <c r="L167" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L167" t="inlineStr">
+      <c r="M167" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M167" t="n">
+      <c r="N167" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11000,20 +11767,25 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
+          <t>0.3020</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
           <t>rs371628865</t>
         </is>
       </c>
-      <c r="K168" t="inlineStr">
+      <c r="L168" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L168" t="inlineStr">
+      <c r="M168" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M168" t="n">
+      <c r="N168" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11063,20 +11835,25 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
+          <t>0.2482</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
           <t>rs61769339</t>
         </is>
       </c>
-      <c r="K169" t="inlineStr">
+      <c r="L169" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L169" t="inlineStr">
+      <c r="M169" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M169" t="n">
+      <c r="N169" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11126,20 +11903,25 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
+          <t>0.8336</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
           <t>rs377354243</t>
         </is>
       </c>
-      <c r="K170" t="inlineStr">
+      <c r="L170" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L170" t="inlineStr">
+      <c r="M170" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M170" t="n">
+      <c r="N170" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11189,20 +11971,25 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
+          <t>0.8566</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
           <t>rs61769340</t>
         </is>
       </c>
-      <c r="K171" t="inlineStr">
+      <c r="L171" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L171" t="inlineStr">
+      <c r="M171" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M171" t="n">
+      <c r="N171" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11252,20 +12039,25 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
+          <t>0.2874</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
           <t>rs77832891</t>
         </is>
       </c>
-      <c r="K172" t="inlineStr">
+      <c r="L172" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L172" t="inlineStr">
+      <c r="M172" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M172" t="n">
+      <c r="N172" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11315,20 +12107,25 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
+          <t>0.9018</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
           <t>rs3131971</t>
         </is>
       </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11378,20 +12175,25 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
           <t>rs3115861</t>
         </is>
       </c>
-      <c r="K174" t="inlineStr">
+      <c r="L174" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L174" t="inlineStr">
+      <c r="M174" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M174" t="n">
+      <c r="N174" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11441,20 +12243,25 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
+          <t>0.9015</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
           <t>rs3115860</t>
         </is>
       </c>
-      <c r="K175" t="inlineStr">
+      <c r="L175" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L175" t="inlineStr">
+      <c r="M175" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M175" t="n">
+      <c r="N175" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11504,20 +12311,25 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
+          <t>0.9028</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
           <t>rs3131970</t>
         </is>
       </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11567,20 +12379,25 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
+          <t>0.8118</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
           <t>rs2073814</t>
         </is>
       </c>
-      <c r="K177" t="inlineStr">
+      <c r="L177" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L177" t="inlineStr">
+      <c r="M177" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M177" t="n">
+      <c r="N177" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11630,20 +12447,25 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
+          <t>0.5371</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
           <t>rs2073813</t>
         </is>
       </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L178" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11693,20 +12515,25 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
+          <t>0.8498</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
           <t>rs3131969</t>
         </is>
       </c>
-      <c r="K179" t="inlineStr">
+      <c r="L179" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L179" t="inlineStr">
+      <c r="M179" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M179" t="n">
+      <c r="N179" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11756,20 +12583,25 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
+          <t>0.8499</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
           <t>rs3131968</t>
         </is>
       </c>
-      <c r="K180" t="inlineStr">
+      <c r="L180" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L180" t="inlineStr">
+      <c r="M180" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M180" t="n">
+      <c r="N180" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11819,20 +12651,25 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
+          <t>0.8511</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
           <t>rs3131967</t>
         </is>
       </c>
-      <c r="K181" t="inlineStr">
+      <c r="L181" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L181" t="inlineStr">
+      <c r="M181" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M181" t="n">
+      <c r="N181" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11882,20 +12719,25 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
+          <t>0.8138</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
           <t>rs3115859</t>
         </is>
       </c>
-      <c r="K182" t="inlineStr">
+      <c r="L182" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L182" t="inlineStr">
+      <c r="M182" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M182" t="n">
+      <c r="N182" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11945,20 +12787,25 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
+          <t>0.8136</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
           <t>rs3131966</t>
         </is>
       </c>
-      <c r="K183" t="inlineStr">
+      <c r="L183" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L183" t="inlineStr">
+      <c r="M183" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M183" t="n">
+      <c r="N183" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12008,20 +12855,25 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
+          <t>0.8381</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
           <t>rs2286139</t>
         </is>
       </c>
-      <c r="K184" t="inlineStr">
+      <c r="L184" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L184" t="inlineStr">
+      <c r="M184" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M184" t="n">
+      <c r="N184" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12071,20 +12923,25 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
+          <t>0.8908</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
           <t>rs1057213</t>
         </is>
       </c>
-      <c r="K185" t="inlineStr">
+      <c r="L185" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L185" t="inlineStr">
+      <c r="M185" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M185" t="n">
+      <c r="N185" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12134,20 +12991,25 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
+          <t>0.8404</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
           <t>rs1064272</t>
         </is>
       </c>
-      <c r="K186" t="inlineStr">
+      <c r="L186" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L186" t="inlineStr">
+      <c r="M186" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M186" t="n">
+      <c r="N186" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12197,20 +13059,25 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
+          <t>0.8463</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
           <t>rs1057212</t>
         </is>
       </c>
-      <c r="K187" t="inlineStr">
+      <c r="L187" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L187" t="inlineStr">
+      <c r="M187" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M187" t="n">
+      <c r="N187" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12260,20 +13127,25 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
+          <t>0.8943</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
           <t>rs59038458</t>
         </is>
       </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L188" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12323,20 +13195,25 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
+          <t>0.9026</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
           <t>rs3115849</t>
         </is>
       </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L189" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12386,20 +13263,25 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
+          <t>0.3640</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
           <t>rs12095200</t>
         </is>
       </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L190" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12449,20 +13331,25 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
+          <t>0.8982</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
           <t>rs3115848</t>
         </is>
       </c>
-      <c r="K191" t="inlineStr">
+      <c r="L191" t="inlineStr">
         <is>
           <t>1|0</t>
         </is>
       </c>
-      <c r="L191" t="inlineStr">
+      <c r="M191" t="inlineStr">
         <is>
           <t>1|0</t>
         </is>
       </c>
-      <c r="M191" t="n">
+      <c r="N191" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12512,20 +13399,25 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
+          <t>0.8983</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
           <t>rs3131950</t>
         </is>
       </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L192" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12575,20 +13467,25 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
+          <t>0.9017</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
           <t>rs3131949</t>
         </is>
       </c>
-      <c r="K193" t="inlineStr">
+      <c r="L193" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L193" t="inlineStr">
+      <c r="M193" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M193" t="n">
+      <c r="N193" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12638,20 +13535,25 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
+          <t>0.9032</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
           <t>rs3131948</t>
         </is>
       </c>
-      <c r="K194" t="inlineStr">
+      <c r="L194" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L194" t="inlineStr">
+      <c r="M194" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M194" t="n">
+      <c r="N194" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12701,20 +13603,25 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
+          <t>0.2444</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
           <t>rs150855628</t>
         </is>
       </c>
-      <c r="K195" t="inlineStr">
+      <c r="L195" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="L195" t="inlineStr">
+      <c r="M195" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M195" t="n">
+      <c r="N195" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12764,20 +13671,25 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
+          <t>0.9027</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
           <t>rs2980319</t>
         </is>
       </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L196" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12827,20 +13739,25 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
+          <t>0.9994</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
           <t>rs112119688</t>
         </is>
       </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L197" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12890,20 +13807,25 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
           <t>rs2977615</t>
         </is>
       </c>
-      <c r="K198" t="inlineStr">
+      <c r="L198" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="L198" t="inlineStr">
+      <c r="M198" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="M198" t="n">
+      <c r="N198" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12953,20 +13875,25 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
+          <t>0.3919</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
           <t>rs1055606</t>
         </is>
       </c>
-      <c r="K199" t="inlineStr">
+      <c r="L199" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="L199" t="inlineStr">
+      <c r="M199" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="M199" t="n">
+      <c r="N199" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13016,20 +13943,25 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
+          <t>0.8460</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
           <t>rs2905055</t>
         </is>
       </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="L200" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13079,20 +14011,25 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
+          <t>0.4989</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
           <t>rs10157303</t>
         </is>
       </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L201" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13142,20 +14079,25 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
+          <t>0.4988</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
           <t>rs10159337</t>
         </is>
       </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L202" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13205,20 +14147,25 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
+          <t>0.4097</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
           <t>rs10159341</t>
         </is>
       </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L203" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13268,20 +14215,25 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
+          <t>0.2921</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
           <t>rs10158924</t>
         </is>
       </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L204" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13331,20 +14283,25 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
+          <t>0.3417</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
           <t>rs10158925</t>
         </is>
       </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L205" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13394,20 +14351,25 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
+          <t>0.7687</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
           <t>rs76619733</t>
         </is>
       </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L206" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13457,20 +14419,25 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
+          <t>0.8022</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
           <t>rs55764050</t>
         </is>
       </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L207" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13520,20 +14487,25 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
           <t>rs375406639</t>
         </is>
       </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L208" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13583,20 +14555,25 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
           <t>rs373590535</t>
         </is>
       </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L209" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13646,20 +14623,25 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
+          <t>0.4844</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
           <t>rs10158938</t>
         </is>
       </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L210" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13709,20 +14691,25 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
+          <t>0.1655</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
           <t>rs111606675</t>
         </is>
       </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L211" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13772,20 +14759,25 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
+          <t>0.9746</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
           <t>rs3131939</t>
         </is>
       </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L212" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13835,20 +14827,25 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
+          <t>0.4294</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
           <t>rs200509509</t>
         </is>
       </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L213" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13898,20 +14895,25 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
+          <t>0.2664</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
           <t>rs61768207</t>
         </is>
       </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L214" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13961,20 +14963,25 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
           <t>rs56224346</t>
         </is>
       </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L215" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14024,20 +15031,25 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
+          <t>0.8474</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
           <t>rs3039191</t>
         </is>
       </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L216" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14087,20 +15099,25 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
+          <t>0.4328</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
           <t>rs111818025</t>
         </is>
       </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L217" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14150,20 +15167,25 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
+          <t>0.9747</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
           <t>rs1044922</t>
         </is>
       </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L218" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14213,20 +15235,25 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
           <t>rs2905036</t>
         </is>
       </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L219" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14276,20 +15303,25 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
+          <t>0.2631</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
           <t>rs2905030</t>
         </is>
       </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L220" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14339,20 +15371,25 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
+          <t>0.4533</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
           <t>rs200896772</t>
         </is>
       </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L221" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14402,20 +15439,25 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
+          <t>0.4920</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
           <t>rs2905029</t>
         </is>
       </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L222" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14465,7 +15507,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>0.1733</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -14478,7 +15520,12 @@
           <t>.</t>
         </is>
       </c>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14528,7 +15575,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>0.0318</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -14541,7 +15588,12 @@
           <t>.</t>
         </is>
       </c>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14591,20 +15643,25 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
+          <t>0.6298</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
           <t>rs2519067</t>
         </is>
       </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L225" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14654,20 +15711,25 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
+          <t>0.3025</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
           <t>rs2519031</t>
         </is>
       </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L226" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14717,20 +15779,25 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
+          <t>0.3007</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
           <t>rs28493038</t>
         </is>
       </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L227" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14780,20 +15847,25 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
+          <t>0.2224</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
           <t>rs117720955</t>
         </is>
       </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L228" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14843,20 +15915,25 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
           <t>rs57181708</t>
         </is>
       </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L229" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14906,20 +15983,25 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
+          <t>0.5047</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
           <t>rs28410559</t>
         </is>
       </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L230" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14969,20 +16051,25 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
+          <t>0.2808</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
           <t>rs2272758</t>
         </is>
       </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L231" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15032,20 +16119,25 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
+          <t>0.6560</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
           <t>rs13303369</t>
         </is>
       </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L232" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15095,20 +16187,25 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
+          <t>0.8391</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
           <t>rs4970461</t>
         </is>
       </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L233" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15158,20 +16255,25 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
+          <t>0.7716</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
           <t>rs13303019</t>
         </is>
       </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L234" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15221,20 +16323,25 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
+          <t>0.6548</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
           <t>rs13303057</t>
         </is>
       </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L235" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15284,20 +16391,25 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
           <t>rs6672356</t>
         </is>
       </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L236" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15347,20 +16459,25 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
+          <t>0.9481</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
           <t>rs3748597</t>
         </is>
       </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L237" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15410,20 +16527,25 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
           <t>rs3828049</t>
         </is>
       </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L238" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15473,20 +16595,25 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
+          <t>0.8646</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
           <t>rs3829740</t>
         </is>
       </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L239" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15536,20 +16663,25 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
+          <t>0.9532</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
           <t>rs7417106</t>
         </is>
       </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L240" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15599,20 +16731,25 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
+          <t>0.8127</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
           <t>rs13302979</t>
         </is>
       </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L241" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15662,20 +16799,25 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
+          <t>0.7275</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
           <t>rs13303368</t>
         </is>
       </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L242" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15725,20 +16867,25 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
           <t>rs13302983</t>
         </is>
       </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L243" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15788,20 +16935,25 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
+          <t>0.7581</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
           <t>rs2298214</t>
         </is>
       </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L244" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>

--- a/outputs/germline_VaraintBasedArray.xlsx
+++ b/outputs/germline_VaraintBasedArray.xlsx
@@ -419,12 +419,12 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>{i}</t>
+          <t>germline_test01</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>{i}</t>
+          <t>germline_test02</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1178,7 +1178,7 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1314,7 +1314,7 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1518,7 +1518,7 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="N18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1654,7 +1654,7 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1790,7 +1790,7 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1994,7 +1994,7 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2266,7 +2266,7 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -2334,7 +2334,7 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -2470,7 +2470,7 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2538,7 +2538,7 @@
         </is>
       </c>
       <c r="N32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2810,7 +2810,7 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -2878,7 +2878,7 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="N38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -3014,7 +3014,7 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -3150,7 +3150,7 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -3218,7 +3218,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -3354,7 +3354,7 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -3490,7 +3490,7 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -3558,7 +3558,7 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -3626,7 +3626,7 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -3694,7 +3694,7 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -3830,7 +3830,7 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -3898,7 +3898,7 @@
         </is>
       </c>
       <c r="N52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -4034,7 +4034,7 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -4102,7 +4102,7 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -4170,7 +4170,7 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="N57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="N58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -4374,7 +4374,7 @@
         </is>
       </c>
       <c r="N59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -4578,7 +4578,7 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -4714,7 +4714,7 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -4850,7 +4850,7 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -4918,7 +4918,7 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -4986,7 +4986,7 @@
         </is>
       </c>
       <c r="N68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -5054,7 +5054,7 @@
         </is>
       </c>
       <c r="N69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="N70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -5190,7 +5190,7 @@
         </is>
       </c>
       <c r="N71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -5258,7 +5258,7 @@
         </is>
       </c>
       <c r="N72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -5326,7 +5326,7 @@
         </is>
       </c>
       <c r="N73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="N74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -5462,7 +5462,7 @@
         </is>
       </c>
       <c r="N75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -5530,7 +5530,7 @@
         </is>
       </c>
       <c r="N76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -5598,7 +5598,7 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -5734,7 +5734,7 @@
         </is>
       </c>
       <c r="N79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -5802,7 +5802,7 @@
         </is>
       </c>
       <c r="N80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -5870,7 +5870,7 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -5938,7 +5938,7 @@
         </is>
       </c>
       <c r="N82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -6006,7 +6006,7 @@
         </is>
       </c>
       <c r="N83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -6074,7 +6074,7 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -6142,7 +6142,7 @@
         </is>
       </c>
       <c r="N85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -6210,7 +6210,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -6278,7 +6278,7 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="N88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -6414,7 +6414,7 @@
         </is>
       </c>
       <c r="N89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -6482,7 +6482,7 @@
         </is>
       </c>
       <c r="N90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -6550,7 +6550,7 @@
         </is>
       </c>
       <c r="N91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -6618,7 +6618,7 @@
         </is>
       </c>
       <c r="N92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -6686,7 +6686,7 @@
         </is>
       </c>
       <c r="N93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -6754,7 +6754,7 @@
         </is>
       </c>
       <c r="N94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -6822,7 +6822,7 @@
         </is>
       </c>
       <c r="N95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -6890,7 +6890,7 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -6958,7 +6958,7 @@
         </is>
       </c>
       <c r="N97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="N98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -7094,7 +7094,7 @@
         </is>
       </c>
       <c r="N99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -7162,7 +7162,7 @@
         </is>
       </c>
       <c r="N100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -7230,7 +7230,7 @@
         </is>
       </c>
       <c r="N101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -7298,7 +7298,7 @@
         </is>
       </c>
       <c r="N102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -7366,7 +7366,7 @@
         </is>
       </c>
       <c r="N103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -7434,7 +7434,7 @@
         </is>
       </c>
       <c r="N104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -7502,7 +7502,7 @@
         </is>
       </c>
       <c r="N105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -7570,7 +7570,7 @@
         </is>
       </c>
       <c r="N106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -7638,7 +7638,7 @@
         </is>
       </c>
       <c r="N107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -7706,7 +7706,7 @@
         </is>
       </c>
       <c r="N108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -7774,7 +7774,7 @@
         </is>
       </c>
       <c r="N109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -7842,7 +7842,7 @@
         </is>
       </c>
       <c r="N110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -7910,7 +7910,7 @@
         </is>
       </c>
       <c r="N111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -7978,7 +7978,7 @@
         </is>
       </c>
       <c r="N112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="N113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -8114,7 +8114,7 @@
         </is>
       </c>
       <c r="N114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="N115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -8250,7 +8250,7 @@
         </is>
       </c>
       <c r="N116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -8318,7 +8318,7 @@
         </is>
       </c>
       <c r="N117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="N118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -8454,7 +8454,7 @@
         </is>
       </c>
       <c r="N119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -8522,7 +8522,7 @@
         </is>
       </c>
       <c r="N120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -8590,7 +8590,7 @@
         </is>
       </c>
       <c r="N121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -8658,7 +8658,7 @@
         </is>
       </c>
       <c r="N122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -8726,7 +8726,7 @@
         </is>
       </c>
       <c r="N123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -8794,7 +8794,7 @@
         </is>
       </c>
       <c r="N124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -8862,7 +8862,7 @@
         </is>
       </c>
       <c r="N125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -8930,7 +8930,7 @@
         </is>
       </c>
       <c r="N126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -8998,7 +8998,7 @@
         </is>
       </c>
       <c r="N127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -9066,7 +9066,7 @@
         </is>
       </c>
       <c r="N128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -9134,7 +9134,7 @@
         </is>
       </c>
       <c r="N129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -9202,7 +9202,7 @@
         </is>
       </c>
       <c r="N130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -9270,7 +9270,7 @@
         </is>
       </c>
       <c r="N131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -9338,7 +9338,7 @@
         </is>
       </c>
       <c r="N132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -9406,7 +9406,7 @@
         </is>
       </c>
       <c r="N133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -9474,7 +9474,7 @@
         </is>
       </c>
       <c r="N134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -9542,7 +9542,7 @@
         </is>
       </c>
       <c r="N135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -9610,7 +9610,7 @@
         </is>
       </c>
       <c r="N136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -9678,7 +9678,7 @@
         </is>
       </c>
       <c r="N137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="N138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -9814,7 +9814,7 @@
         </is>
       </c>
       <c r="N139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -9882,7 +9882,7 @@
         </is>
       </c>
       <c r="N140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -9950,7 +9950,7 @@
         </is>
       </c>
       <c r="N141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -10018,7 +10018,7 @@
         </is>
       </c>
       <c r="N142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -10086,7 +10086,7 @@
         </is>
       </c>
       <c r="N143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -10154,7 +10154,7 @@
         </is>
       </c>
       <c r="N144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -10222,7 +10222,7 @@
         </is>
       </c>
       <c r="N145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -10290,7 +10290,7 @@
         </is>
       </c>
       <c r="N146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -10358,7 +10358,7 @@
         </is>
       </c>
       <c r="N147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -10426,7 +10426,7 @@
         </is>
       </c>
       <c r="N148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -10494,7 +10494,7 @@
         </is>
       </c>
       <c r="N149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -10562,7 +10562,7 @@
         </is>
       </c>
       <c r="N150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -10630,7 +10630,7 @@
         </is>
       </c>
       <c r="N151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -10698,7 +10698,7 @@
         </is>
       </c>
       <c r="N152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -10766,7 +10766,7 @@
         </is>
       </c>
       <c r="N153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -10834,7 +10834,7 @@
         </is>
       </c>
       <c r="N154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -10902,7 +10902,7 @@
         </is>
       </c>
       <c r="N155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -10970,7 +10970,7 @@
         </is>
       </c>
       <c r="N156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -11038,7 +11038,7 @@
         </is>
       </c>
       <c r="N157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="N158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -11174,7 +11174,7 @@
         </is>
       </c>
       <c r="N159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -11242,7 +11242,7 @@
         </is>
       </c>
       <c r="N160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -11310,7 +11310,7 @@
         </is>
       </c>
       <c r="N161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -11378,7 +11378,7 @@
         </is>
       </c>
       <c r="N162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="N163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -11514,7 +11514,7 @@
         </is>
       </c>
       <c r="N164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -11582,7 +11582,7 @@
         </is>
       </c>
       <c r="N165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -11650,7 +11650,7 @@
         </is>
       </c>
       <c r="N166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -11718,7 +11718,7 @@
         </is>
       </c>
       <c r="N167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -11786,7 +11786,7 @@
         </is>
       </c>
       <c r="N168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -11854,7 +11854,7 @@
         </is>
       </c>
       <c r="N169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -11922,7 +11922,7 @@
         </is>
       </c>
       <c r="N170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -11990,7 +11990,7 @@
         </is>
       </c>
       <c r="N171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -12058,7 +12058,7 @@
         </is>
       </c>
       <c r="N172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -12126,7 +12126,7 @@
         </is>
       </c>
       <c r="N173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -12194,7 +12194,7 @@
         </is>
       </c>
       <c r="N174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -12262,7 +12262,7 @@
         </is>
       </c>
       <c r="N175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -12330,7 +12330,7 @@
         </is>
       </c>
       <c r="N176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -12398,7 +12398,7 @@
         </is>
       </c>
       <c r="N177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="N178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -12534,7 +12534,7 @@
         </is>
       </c>
       <c r="N179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -12602,7 +12602,7 @@
         </is>
       </c>
       <c r="N180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -12670,7 +12670,7 @@
         </is>
       </c>
       <c r="N181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -12738,7 +12738,7 @@
         </is>
       </c>
       <c r="N182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -12806,7 +12806,7 @@
         </is>
       </c>
       <c r="N183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -12874,7 +12874,7 @@
         </is>
       </c>
       <c r="N184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -12942,7 +12942,7 @@
         </is>
       </c>
       <c r="N185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -13010,7 +13010,7 @@
         </is>
       </c>
       <c r="N186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -13078,7 +13078,7 @@
         </is>
       </c>
       <c r="N187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="N188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -13214,7 +13214,7 @@
         </is>
       </c>
       <c r="N189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -13282,7 +13282,7 @@
         </is>
       </c>
       <c r="N190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -13350,7 +13350,7 @@
         </is>
       </c>
       <c r="N191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -13418,7 +13418,7 @@
         </is>
       </c>
       <c r="N192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -13486,7 +13486,7 @@
         </is>
       </c>
       <c r="N193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -13554,7 +13554,7 @@
         </is>
       </c>
       <c r="N194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -13622,7 +13622,7 @@
         </is>
       </c>
       <c r="N195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -13690,7 +13690,7 @@
         </is>
       </c>
       <c r="N196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -13758,7 +13758,7 @@
         </is>
       </c>
       <c r="N197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="N198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -13894,7 +13894,7 @@
         </is>
       </c>
       <c r="N199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -13962,7 +13962,7 @@
         </is>
       </c>
       <c r="N200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -14030,7 +14030,7 @@
         </is>
       </c>
       <c r="N201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -14098,7 +14098,7 @@
         </is>
       </c>
       <c r="N202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -14166,7 +14166,7 @@
         </is>
       </c>
       <c r="N203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -14234,7 +14234,7 @@
         </is>
       </c>
       <c r="N204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -14302,7 +14302,7 @@
         </is>
       </c>
       <c r="N205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -14370,7 +14370,7 @@
         </is>
       </c>
       <c r="N206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -14438,7 +14438,7 @@
         </is>
       </c>
       <c r="N207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -14506,7 +14506,7 @@
         </is>
       </c>
       <c r="N208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -14574,7 +14574,7 @@
         </is>
       </c>
       <c r="N209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -14642,7 +14642,7 @@
         </is>
       </c>
       <c r="N210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -14710,7 +14710,7 @@
         </is>
       </c>
       <c r="N211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -14778,7 +14778,7 @@
         </is>
       </c>
       <c r="N212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="N213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -14914,7 +14914,7 @@
         </is>
       </c>
       <c r="N214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -14982,7 +14982,7 @@
         </is>
       </c>
       <c r="N215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -15050,7 +15050,7 @@
         </is>
       </c>
       <c r="N216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -15118,7 +15118,7 @@
         </is>
       </c>
       <c r="N217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="N218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -15254,7 +15254,7 @@
         </is>
       </c>
       <c r="N219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -15322,7 +15322,7 @@
         </is>
       </c>
       <c r="N220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -15390,7 +15390,7 @@
         </is>
       </c>
       <c r="N221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -15458,7 +15458,7 @@
         </is>
       </c>
       <c r="N222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -15526,7 +15526,7 @@
         </is>
       </c>
       <c r="N223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -15594,7 +15594,7 @@
         </is>
       </c>
       <c r="N224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -15662,7 +15662,7 @@
         </is>
       </c>
       <c r="N225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -15730,7 +15730,7 @@
         </is>
       </c>
       <c r="N226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -15798,7 +15798,7 @@
         </is>
       </c>
       <c r="N227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -15866,7 +15866,7 @@
         </is>
       </c>
       <c r="N228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -15934,7 +15934,7 @@
         </is>
       </c>
       <c r="N229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -16002,7 +16002,7 @@
         </is>
       </c>
       <c r="N230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -16070,7 +16070,7 @@
         </is>
       </c>
       <c r="N231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -16138,7 +16138,7 @@
         </is>
       </c>
       <c r="N232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -16206,7 +16206,7 @@
         </is>
       </c>
       <c r="N233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -16274,7 +16274,7 @@
         </is>
       </c>
       <c r="N234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -16342,7 +16342,7 @@
         </is>
       </c>
       <c r="N235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -16410,7 +16410,7 @@
         </is>
       </c>
       <c r="N236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -16478,7 +16478,7 @@
         </is>
       </c>
       <c r="N237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="N238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -16614,7 +16614,7 @@
         </is>
       </c>
       <c r="N239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -16682,7 +16682,7 @@
         </is>
       </c>
       <c r="N240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -16750,7 +16750,7 @@
         </is>
       </c>
       <c r="N241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -16818,7 +16818,7 @@
         </is>
       </c>
       <c r="N242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -16886,7 +16886,7 @@
         </is>
       </c>
       <c r="N243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -16954,7 +16954,7 @@
         </is>
       </c>
       <c r="N244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
